--- a/TC_input_002.xlsx
+++ b/TC_input_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595FEA56-5367-4A98-87DF-CB654BA91982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5B7BC-FEF6-4DC6-BD69-789BC9199D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22640DCB-0024-45AF-9CD7-F3EBBA3279CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -45,19 +45,32 @@
     <t>Expected values</t>
   </si>
   <si>
-    <t>enter user name and password</t>
-  </si>
-  <si>
-    <t>landed on appointemnt page</t>
-  </si>
-  <si>
-    <t>user name :john doe</t>
-  </si>
-  <si>
-    <t>password :ThisIsNotAPassword</t>
-  </si>
-  <si>
-    <t>TC_cura_makeappoin_002</t>
+    <t>TC_cura_validateappointmentbutton_002</t>
+  </si>
+  <si>
+    <t>1. Valid Scenario:</t>
+  </si>
+  <si>
+    <t>Homepage navigation.</t>
+  </si>
+  <si>
+    <t>Confirm "Make Appointment" button visibility.</t>
+  </si>
+  <si>
+    <t>Click "Make Appointment."</t>
+  </si>
+  <si>
+    <t>(If applicable) Test "Make Appointment" button in invalid context (e.g., when not logged in).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Redirection
+    Presence</t>
+  </si>
+  <si>
+    <t>2. Invalid Scenario :</t>
+  </si>
+  <si>
+    <t>(If applicable) Error</t>
   </si>
 </sst>
 </file>
@@ -101,9 +114,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B4E34D-0A03-45EB-80CF-D732B8B4763A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,26 +467,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
